--- a/pred_ohlcv/54_21/2019-11-02 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 ZIL ohlcv.xlsx
@@ -1146,7 +1146,7 @@
         <v>1719425.8331</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2905372.4399</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>3179772.267899999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>3795494.489899999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3782266.334599999</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3857627.355099999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3857627.355099999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3888018.8317</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>4261180.397499999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 ZIL ohlcv.xlsx
@@ -1146,7 +1146,7 @@
         <v>1719425.8331</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>1810788.0544</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>1894319.5287</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2048506.507</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2017080.2648</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2096558.0177</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2802809.539799999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2905372.4399</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>3179772.267899999</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>3795494.489899999</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3782266.334599999</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3857627.355099999</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3857627.355099999</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3888018.8317</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3896158.2212</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3508653.0636</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3508744.1886</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>3508744.1886</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>3511646.402399999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>3493462.775399999</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
